--- a/Abivax.xlsx
+++ b/Abivax.xlsx
@@ -1,32 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCKJAM\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A48A5B5-A2CF-4136-8AC2-F984DA1CCBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Mkt Cap</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>ABVX</t>
+  </si>
+  <si>
+    <t>In Euros</t>
+  </si>
+  <si>
+    <t>Obefazimod </t>
+  </si>
+  <si>
+    <t>ABTECT - PIII</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>ENHANCE-CD - PIIb</t>
+  </si>
+  <si>
+    <t>Chrons</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Serif"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +414,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>77400000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C4*C3</f>
+        <v>5456700000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>170671000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <f>(70645+93999)*1000</f>
+        <v>164644000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C5+C7-C6</f>
+        <v>5450673000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>